--- a/src/test/java/common/test_data/Users.xlsx
+++ b/src/test/java/common/test_data/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crush\IdeaProjects\QaLight_AUT_W47\src\test\java\common\test_data\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A4AFFF-31EA-4CCF-A66B-120DE877B1E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179C0B53-625E-47FF-B930-A4340B193349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91945697-0EAB-4C4A-A768-015EA4F3B7B5}"/>
   </bookViews>
@@ -34,22 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
-  <si>
-    <t>NameSdAXW</t>
-  </si>
-  <si>
-    <t>random_address+9796048250200@gmail.com</t>
-  </si>
-  <si>
-    <t>Test_Password_1</t>
-  </si>
-  <si>
-    <t>NameVnjcq</t>
-  </si>
-  <si>
-    <t>random_address+9892979244200@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -60,55 +45,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Nameikfvf</t>
-  </si>
-  <si>
-    <t>random_address+11831605879000@gmail.com</t>
-  </si>
-  <si>
-    <t>NameXWRwf</t>
-  </si>
-  <si>
-    <t>random_address+11966457933700@gmail.com</t>
-  </si>
-  <si>
-    <t>TestUser_1lDdUbMPQJh</t>
-  </si>
-  <si>
-    <t>automation_test+1610834474+MDLlxQfhle@gmail.com</t>
-  </si>
-  <si>
-    <t>TestPassw0rd@123!$</t>
-  </si>
-  <si>
-    <t>TestUser_1jZTFRfCRoo</t>
-  </si>
-  <si>
-    <t>automation_test+1610834559+wVmhSnNAMe@gmail.com</t>
-  </si>
-  <si>
-    <t>TestUser_1VjRMiDyFJr</t>
-  </si>
-  <si>
-    <t>automation_test+1610834638+HsHyCaidyF@gmail.com</t>
-  </si>
-  <si>
-    <t>TestUser_1tNqfZFpIPQ</t>
-  </si>
-  <si>
-    <t>automation_test+1610834721+VJaPciHjet@gmail.com</t>
-  </si>
-  <si>
-    <t>TestPassw0rd@123!$rmNymezfnz</t>
-  </si>
-  <si>
-    <t>TestUser_1xGzXsMFZwj</t>
-  </si>
-  <si>
-    <t>automation_test+1610834781+tskoNwkryG@gmail.com</t>
-  </si>
-  <si>
-    <t>TestPassw0rd@123!$cGqEyONtoc</t>
+    <t>TestUser_1QgTTZhpqhC</t>
+  </si>
+  <si>
+    <t>automation_test+1610871518+XLsiqCATTl@gmail.com</t>
+  </si>
+  <si>
+    <t>TestPassw0rd@123!$KxNZZIgSnK</t>
   </si>
 </sst>
 </file>
@@ -474,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,112 +432,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
